--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb3-Rhbdl2.xlsx
@@ -534,16 +534,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.071327</v>
+        <v>0.020335</v>
       </c>
       <c r="H2">
-        <v>0.213981</v>
+        <v>0.061005</v>
       </c>
       <c r="I2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="J2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,10 +552,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.586294333333334</v>
+        <v>0.2203263333333333</v>
       </c>
       <c r="N2">
-        <v>4.758883000000001</v>
+        <v>0.660979</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.1131456159136667</v>
+        <v>0.004480335988333333</v>
       </c>
       <c r="R2">
-        <v>1.018310543223</v>
+        <v>0.040323023895</v>
       </c>
       <c r="S2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698561</v>
       </c>
       <c r="T2">
-        <v>0.03356605248408491</v>
+        <v>0.009804808687698559</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>0.9246690000000001</v>
       </c>
       <c r="I3">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="J3">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -614,10 +614,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>1.586294333333334</v>
+        <v>0.2203263333333333</v>
       </c>
       <c r="N3">
-        <v>4.758883000000001</v>
+        <v>0.660979</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.4889323983030002</v>
+        <v>0.06790964343899999</v>
       </c>
       <c r="R3">
-        <v>4.400391584727001</v>
+        <v>0.611186790951</v>
       </c>
       <c r="S3">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
       <c r="T3">
-        <v>0.1450478695977975</v>
+        <v>0.1486140913768632</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,13 +661,13 @@
         <v>1.745424333333333</v>
       </c>
       <c r="H4">
-        <v>5.236273</v>
+        <v>5.236273000000001</v>
       </c>
       <c r="I4">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="J4">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -676,10 +676,10 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.586294333333334</v>
+        <v>0.2203263333333333</v>
       </c>
       <c r="N4">
-        <v>4.758883000000001</v>
+        <v>0.660979</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>2.768756729228778</v>
+        <v>0.3845629434741111</v>
       </c>
       <c r="R4">
-        <v>24.918810563059</v>
+        <v>3.461066491267</v>
       </c>
       <c r="S4">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354383</v>
       </c>
       <c r="T4">
-        <v>0.8213860779181176</v>
+        <v>0.8415810999354382</v>
       </c>
     </row>
   </sheetData>
